--- a/front/src/assets/SOLICITAR_AHORRO_NOMINA.xlsx
+++ b/front/src/assets/SOLICITAR_AHORRO_NOMINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\femseapto\front\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E43712-9813-4856-8723-336AFA5FC2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61D0743-444A-406F-85C9-F808A619B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,158 +757,158 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3975,6 +3975,94 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>649432</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>397651</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87671</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D1133A-5807-6618-753B-03FA7913263E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3879273" y="2130137"/>
+          <a:ext cx="1419423" cy="1533739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1399189</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215805</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5A5A51-8651-A30A-7583-3247C0E5E327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617982" y="3940465"/>
+          <a:ext cx="1582151" cy="861198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4269,8 +4357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4288,245 +4376,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="42" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="46"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="42" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="46"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="40" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="46"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="46"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="46"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="21"/>
     </row>
     <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="51" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="46"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="46"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="46"/>
+      <c r="J8" s="21"/>
     </row>
     <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="46"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="54"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="46"/>
+      <c r="J10" s="21"/>
     </row>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="46"/>
+      <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="55" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="46"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="46"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="46"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="46"/>
+      <c r="J15" s="21"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="46"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="46"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="46"/>
-      <c r="B18" s="59" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="14" t="s">
@@ -4535,26 +4623,26 @@
       <c r="G18" s="15"/>
       <c r="H18" s="16"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="46"/>
+      <c r="J18" s="21"/>
     </row>
     <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="61" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
       <c r="F19" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="16"/>
       <c r="I19" s="8"/>
-      <c r="J19" s="46"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="10"/>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
@@ -4563,103 +4651,103 @@
       <c r="G20" s="17"/>
       <c r="H20" s="16"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="46"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
     </row>
     <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="46"/>
-      <c r="J23" s="46"/>
+      <c r="A23" s="21"/>
+      <c r="J23" s="21"/>
     </row>
     <row r="24" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="J24" s="46"/>
+      <c r="A24" s="21"/>
+      <c r="J24" s="21"/>
     </row>
     <row r="25" spans="1:10" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="J25" s="46"/>
+      <c r="A25" s="21"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="1:10" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="J26" s="46"/>
+      <c r="A26" s="21"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="1:10" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="J27" s="46"/>
+      <c r="A27" s="21"/>
+      <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="A28" s="21"/>
+      <c r="J28" s="21"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="A29" s="21"/>
+      <c r="J29" s="21"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="J30" s="46"/>
+      <c r="A30" s="21"/>
+      <c r="J30" s="21"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="J31" s="46"/>
+      <c r="A31" s="21"/>
+      <c r="J31" s="21"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="A32" s="21"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="J33" s="46"/>
+      <c r="A33" s="21"/>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="J34" s="46"/>
+      <c r="A34" s="21"/>
+      <c r="J34" s="21"/>
     </row>
     <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="J35" s="46"/>
+      <c r="A35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="J36" s="46"/>
+      <c r="A36" s="21"/>
+      <c r="J36" s="21"/>
     </row>
     <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="J37" s="46"/>
+      <c r="A37" s="21"/>
+      <c r="J37" s="21"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46"/>
-      <c r="J38" s="46"/>
+      <c r="A38" s="21"/>
+      <c r="J38" s="21"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="J39" s="46"/>
+      <c r="A39" s="21"/>
+      <c r="J39" s="21"/>
     </row>
     <row r="40" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="A40" s="21"/>
+      <c r="J40" s="21"/>
     </row>
     <row r="41" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="46"/>
-      <c r="J41" s="46"/>
+      <c r="A41" s="21"/>
+      <c r="J41" s="21"/>
     </row>
     <row r="42" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
@@ -4668,6 +4756,17 @@
     <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="D2:G4"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="C21:I21"/>
     <mergeCell ref="A23:A41"/>
     <mergeCell ref="A1:J1"/>
@@ -4684,17 +4783,6 @@
     <mergeCell ref="J23:J41"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B13:I13"/>
-    <mergeCell ref="D2:G4"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B14:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>

--- a/front/src/assets/SOLICITAR_AHORRO_NOMINA.xlsx
+++ b/front/src/assets/SOLICITAR_AHORRO_NOMINA.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\femseapto\front\src\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61D0743-444A-406F-85C9-F808A619B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
@@ -24,66 +20,10 @@
   <si>
     <r>
       <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Salario $</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>                                                         </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Seleccione la línea de ahorro que desea solicitar:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>ESPACIO EXCLUSIVO PARA FEMSEAPTO</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="1"/>
-      </rPr>
-      <t>Nota:</t>
-    </r>
-  </si>
-  <si>
-    <t>PÁGINA: 1 de 1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="18.5"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049989318521683403"/>
         <rFont val="Calibri"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve">SOLICITUD DE AHORRO
 </t>
@@ -92,249 +32,151 @@
       <rPr>
         <b/>
         <sz val="14"/>
-        <color theme="1" tint="4.9989318521683403E-2"/>
+        <color theme="1" tint="0.049989318521683403"/>
         <rFont val="Calibri"/>
-        <family val="1"/>
       </rPr>
-      <t>ASOCIADOS NOMINA</t>
+      <t xml:space="preserve">ASOCIADOS NOMINA</t>
     </r>
   </si>
   <si>
-    <t>CODIGO: FR-GA-02</t>
+    <t xml:space="preserve">CODIGO: FR-GA-02</t>
   </si>
   <si>
-    <t>FIRMA: ______________________________________________________</t>
+    <t xml:space="preserve">VERSIÓN: 2</t>
   </si>
   <si>
-    <t>NOMBRE: ____________________________________________________</t>
-  </si>
-  <si>
-    <t>CEDULA: _____________________________________________________</t>
+    <t xml:space="preserve">PÁGINA: 1 de 1</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="8.5"/>
+        <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="1"/>
       </rPr>
-      <t>Firma de recibido</t>
+      <t xml:space="preserve">Salario $</t>
     </r>
     <r>
       <rPr>
-        <sz val="8.5"/>
+        <u val="single"/>
+        <sz val="10"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
-      <t>:</t>
+      <t>                                                         </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Seleccione la línea de ahorro que desea solicitar:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraordinario: $__________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navideño: $ _________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vacacional: $ _________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivienda: $ _________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIRMA: ______________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE: ____________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDULA: _____________________________________________________</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELULAR: _____________________________________________________</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="8.5"/>
         <rFont val="Calibri"/>
-        <family val="1"/>
       </rPr>
-      <t>Firma de Creación</t>
+      <t xml:space="preserve">ESPACIO EXCLUSIVO PARA FEMSEAPTO</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Firma de recibido:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de recibido:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firma de Creación:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de Creación:</t>
   </si>
   <si>
     <r>
       <rPr>
+        <b/>
         <sz val="8.5"/>
         <rFont val="Calibri"/>
-        <family val="1"/>
       </rPr>
-      <t>Fecha de recibido</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
+      <t>Nota:</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Fecha de Creación</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Navideño</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:             $ _________________</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Extraordinario</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>: $__________________</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Vacacional</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:         $ _________________</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Vivienda</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>:               $ _________________</t>
-    </r>
-  </si>
-  <si>
-    <t>Se debe anexar el estudio de capacidad de endeudamiento para cada solicitud de creación de ahorro y así validar si cuenta con la capacidad.</t>
-  </si>
-  <si>
-    <t>CELULAR: _____________________________________________________</t>
-  </si>
-  <si>
-    <t>VERSIÓN: 2</t>
+    <t xml:space="preserve">Se debe anexar el estudio de capacidad de endeudamiento para cada solicitud de creación de ahorro y así validar si cuenta con la capacidad.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Times New Roman"/>
-      <charset val="204"/>
     </font>
     <font>
-      <sz val="8.5"/>
+      <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <color theme="1" tint="0.049989318521683403"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="8.5"/>
+      <sz val="10.000000"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8.5"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8.5"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18.5"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.5"/>
+      <sz val="10.000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10.000000"/>
       <name val="Calibri"/>
-      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <b/>
+      <sz val="8.500000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8.500000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -346,76 +188,245 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB8CCE3"/>
+        <fgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFB8CCE3"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="27">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
@@ -430,493 +441,302 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right style="none"/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="none"/>
+      <right style="none"/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right style="none"/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="63">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="3" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="7" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3" wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf fontId="7" fillId="2" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="8" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{AD9EDFFC-A056-424E-8728-DA962DF91EB8}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -929,7 +749,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -940,30 +760,16 @@
     <xdr:ext cx="654376" cy="511869"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image1.jpeg">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="image1.jpeg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="565687" y="172962"/>
           <a:ext cx="654376" cy="511869"/>
@@ -982,19 +788,13 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="436245" cy="393700"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:ext cx="436245" cy="393699"/>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 4" descr="DD">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D20EBD7-5AB6-42CE-B620-2793E593AD66}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Shape 4" descr="DD"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4695825" y="3724275"/>
           <a:ext cx="436245" cy="393700"/>
@@ -1006,7 +806,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -1120,7 +920,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="57912" y="377951"/>
               </a:moveTo>
@@ -1135,7 +935,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="377951"/>
               </a:moveTo>
@@ -1150,7 +950,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387095" y="374903"/>
               </a:moveTo>
@@ -1171,7 +971,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="48767" y="374903"/>
               </a:moveTo>
@@ -1186,7 +986,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362711"/>
               </a:moveTo>
@@ -1213,7 +1013,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="30479" y="362711"/>
               </a:moveTo>
@@ -1228,7 +1028,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="344423"/>
               </a:moveTo>
@@ -1258,7 +1058,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="24383" y="353567"/>
               </a:moveTo>
@@ -1273,7 +1073,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="344423"/>
               </a:moveTo>
@@ -1288,7 +1088,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="430529" y="45719"/>
               </a:moveTo>
@@ -1324,7 +1124,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="19812" y="45719"/>
               </a:moveTo>
@@ -1339,7 +1139,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="420623" y="27431"/>
               </a:moveTo>
@@ -1369,7 +1169,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="25907" y="36575"/>
               </a:moveTo>
@@ -1384,7 +1184,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="33527" y="27431"/>
               </a:moveTo>
@@ -1399,7 +1199,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="406400" y="15239"/>
               </a:moveTo>
@@ -1426,7 +1226,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="54863" y="15239"/>
               </a:moveTo>
@@ -1441,7 +1241,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -1479,13 +1279,20 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-ES"/>
             <a:t>    DD</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1498,19 +1305,13 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>40767</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="433070" cy="393700"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:ext cx="433070" cy="393699"/>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93101A62-AF40-4075-8E34-8EF389D1FC50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Shape 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5223129" y="3726942"/>
           <a:ext cx="433070" cy="393700"/>
@@ -1522,7 +1323,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -1612,7 +1413,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387096" y="374903"/>
               </a:moveTo>
@@ -1633,7 +1434,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="45720" y="374903"/>
               </a:moveTo>
@@ -1648,7 +1449,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362712"/>
               </a:moveTo>
@@ -1675,7 +1476,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="414527" y="344424"/>
               </a:moveTo>
@@ -1702,7 +1503,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16763" y="344424"/>
               </a:moveTo>
@@ -1717,7 +1518,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="428243" y="45719"/>
               </a:moveTo>
@@ -1747,7 +1548,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="45719"/>
               </a:moveTo>
@@ -1762,7 +1563,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="27431"/>
               </a:moveTo>
@@ -1789,7 +1590,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405384" y="15239"/>
               </a:moveTo>
@@ -1816,7 +1617,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="51815" y="15239"/>
               </a:moveTo>
@@ -1831,7 +1632,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -1869,13 +1670,20 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-ES"/>
             <a:t>   MM</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1888,19 +1696,13 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>40767</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="433070" cy="393700"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:ext cx="433070" cy="393699"/>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C82A1-F161-4096-8B24-72D71CC364A8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Shape 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5737479" y="3726942"/>
           <a:ext cx="433070" cy="393700"/>
@@ -1912,7 +1714,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -2002,7 +1804,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387096" y="374903"/>
               </a:moveTo>
@@ -2023,7 +1825,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="45720" y="374903"/>
               </a:moveTo>
@@ -2038,7 +1840,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362712"/>
               </a:moveTo>
@@ -2065,7 +1867,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="414527" y="344424"/>
               </a:moveTo>
@@ -2092,7 +1894,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16763" y="344424"/>
               </a:moveTo>
@@ -2107,7 +1909,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="428243" y="45719"/>
               </a:moveTo>
@@ -2137,7 +1939,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="45719"/>
               </a:moveTo>
@@ -2152,7 +1954,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="27431"/>
               </a:moveTo>
@@ -2179,7 +1981,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405384" y="15239"/>
               </a:moveTo>
@@ -2206,7 +2008,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="51815" y="15239"/>
               </a:moveTo>
@@ -2221,7 +2023,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -2259,13 +2061,20 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-ES"/>
             <a:t>    AA</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2278,19 +2087,13 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="436245" cy="393700"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:ext cx="436245" cy="393699"/>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 4" descr="DD">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4970496E-8AC8-45A6-B20C-7CE73E4C50D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Shape 4" descr="DD"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4695825" y="4181475"/>
           <a:ext cx="436245" cy="393700"/>
@@ -2302,7 +2105,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -2416,7 +2219,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="57912" y="377951"/>
               </a:moveTo>
@@ -2431,7 +2234,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="377951"/>
               </a:moveTo>
@@ -2446,7 +2249,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387095" y="374903"/>
               </a:moveTo>
@@ -2467,7 +2270,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="48767" y="374903"/>
               </a:moveTo>
@@ -2482,7 +2285,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362711"/>
               </a:moveTo>
@@ -2509,7 +2312,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="30479" y="362711"/>
               </a:moveTo>
@@ -2524,7 +2327,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="344423"/>
               </a:moveTo>
@@ -2554,7 +2357,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="24383" y="353567"/>
               </a:moveTo>
@@ -2569,7 +2372,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="344423"/>
               </a:moveTo>
@@ -2584,7 +2387,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="430529" y="45719"/>
               </a:moveTo>
@@ -2620,7 +2423,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="19812" y="45719"/>
               </a:moveTo>
@@ -2635,7 +2438,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="420623" y="27431"/>
               </a:moveTo>
@@ -2665,7 +2468,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="25907" y="36575"/>
               </a:moveTo>
@@ -2680,7 +2483,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="33527" y="27431"/>
               </a:moveTo>
@@ -2695,7 +2498,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="406400" y="15239"/>
               </a:moveTo>
@@ -2722,7 +2525,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="54863" y="15239"/>
               </a:moveTo>
@@ -2737,7 +2540,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="436245" h="393700">
+            <a:path w="436245" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -2775,13 +2578,20 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-ES"/>
             <a:t>    DD</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2794,19 +2604,13 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>97917</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="433070" cy="393700"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:ext cx="433070" cy="393699"/>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Shape 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E31479F0-BCC4-4765-99BA-917E4DE3FBDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Shape 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5223129" y="4184142"/>
           <a:ext cx="433070" cy="393700"/>
@@ -2818,7 +2622,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -2908,7 +2712,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387096" y="374903"/>
               </a:moveTo>
@@ -2929,7 +2733,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="45720" y="374903"/>
               </a:moveTo>
@@ -2944,7 +2748,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362712"/>
               </a:moveTo>
@@ -2971,7 +2775,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="414527" y="344424"/>
               </a:moveTo>
@@ -2998,7 +2802,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16763" y="344424"/>
               </a:moveTo>
@@ -3013,7 +2817,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="428243" y="45719"/>
               </a:moveTo>
@@ -3043,7 +2847,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="45719"/>
               </a:moveTo>
@@ -3058,7 +2862,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="27431"/>
               </a:moveTo>
@@ -3085,7 +2889,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405384" y="15239"/>
               </a:moveTo>
@@ -3112,7 +2916,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="51815" y="15239"/>
               </a:moveTo>
@@ -3127,7 +2931,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -3165,13 +2969,20 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-ES"/>
             <a:t>   MM</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3184,19 +2995,13 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>97917</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="433070" cy="393700"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:ext cx="433070" cy="393699"/>
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Shape 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D0ACE9-D2D5-4C7D-BCB2-C30BBCE8F48F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Shape 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="5737479" y="4184142"/>
           <a:ext cx="433070" cy="393700"/>
@@ -3208,7 +3013,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="377951" y="0"/>
               </a:moveTo>
@@ -3298,7 +3103,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="387096" y="374903"/>
               </a:moveTo>
@@ -3319,7 +3124,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="45720" y="374903"/>
               </a:moveTo>
@@ -3334,7 +3139,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405383" y="362712"/>
               </a:moveTo>
@@ -3361,7 +3166,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="414527" y="344424"/>
               </a:moveTo>
@@ -3388,7 +3193,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="16763" y="344424"/>
               </a:moveTo>
@@ -3403,7 +3208,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="428243" y="45719"/>
               </a:moveTo>
@@ -3433,7 +3238,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="18287" y="45719"/>
               </a:moveTo>
@@ -3448,7 +3253,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="417575" y="27431"/>
               </a:moveTo>
@@ -3475,7 +3280,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="405384" y="15239"/>
               </a:moveTo>
@@ -3502,7 +3307,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="51815" y="15239"/>
               </a:moveTo>
@@ -3517,7 +3322,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="433070" h="393700">
+            <a:path w="433070" h="393700" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="402336" y="12191"/>
               </a:moveTo>
@@ -3555,13 +3360,20 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-ES"/>
             <a:t>    AA</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3575,20 +3387,14 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="936625" cy="1111250"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB0BF01D-2A2D-49B1-8DF1-752535ACE0E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4140568" y="2422451"/>
+          <a:off x="4140567" y="2422451"/>
           <a:ext cx="936625" cy="1111250"/>
         </a:xfrm>
         <a:custGeom>
@@ -3598,7 +3404,7 @@
           <a:cxnLst/>
           <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
-            <a:path w="744220" h="744220">
+            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="124967" y="3048"/>
               </a:moveTo>
@@ -3733,7 +3539,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="744220" h="744220">
+            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="737615" y="88391"/>
               </a:moveTo>
@@ -3775,7 +3581,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="744220" h="744220">
+            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="10668" y="88391"/>
               </a:moveTo>
@@ -3790,7 +3596,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="744220" h="744220">
+            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="643127" y="3048"/>
               </a:moveTo>
@@ -3844,7 +3650,7 @@
               </a:lnTo>
               <a:close/>
             </a:path>
-            <a:path w="744220" h="744220">
+            <a:path w="744220" h="744220" fill="norm" stroke="1" extrusionOk="0">
               <a:moveTo>
                 <a:pt x="618744" y="0"/>
               </a:moveTo>
@@ -3881,21 +3687,33 @@
         <a:bodyPr anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-ES"/>
             <a:t>     </a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="es-ES"/>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-ES" baseline="0"/>
+            <a:rPr lang="es-ES"/>
             <a:t>     </a:t>
           </a:r>
           <a:endParaRPr lang="es-ES"/>
@@ -3904,7 +3722,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1073150</xdr:colOff>
@@ -3913,22 +3731,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
+      <xdr:colOff>51954</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12FD0F29-A482-F936-2467-9FF95C1B6550}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4302991" y="3321050"/>
           <a:ext cx="650009" cy="261505"/>
@@ -3943,13 +3755,13 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:srgbClr val="000000"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3959,12 +3771,14 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="es-ES" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3977,12 +3791,48 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1399188</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215804</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4617982" y="3940465"/>
+          <a:ext cx="1582151" cy="861198"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>649432</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>43296</xdr:rowOff>
+      <xdr:rowOff>43295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
@@ -3992,24 +3842,16 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30D1133A-5807-6618-753B-03FA7913263E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="3879273" y="2130137"/>
           <a:ext cx="1419423" cy="1533739"/>
@@ -4021,57 +3863,13 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1399189</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>215805</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>98284</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E5A5A51-8651-A30A-7583-3247C0E5E327}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4617982" y="3940465"/>
-          <a:ext cx="1582151" cy="861198"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4109,18 +3907,18 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -4143,19 +3941,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -4178,10 +3975,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4353,86 +4149,294 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="29.1640625" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" customWidth="1"/>
-    <col min="10" max="10" width="4.83203125" style="11" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" style="1" width="4.83203125"/>
+    <col customWidth="1" min="2" max="2" width="10.1640625"/>
+    <col customWidth="1" min="3" max="3" width="12.6640625"/>
+    <col customWidth="1" min="4" max="4" width="5.33203125"/>
+    <col customWidth="1" min="5" max="5" width="23.5"/>
+    <col customWidth="1" min="6" max="6" width="29.1640625"/>
+    <col customWidth="1" min="7" max="7" width="8"/>
+    <col customWidth="1" min="8" max="8" width="11.1640625"/>
+    <col customWidth="1" min="9" max="9" width="12.1640625"/>
+    <col customWidth="1" min="10" max="10" style="1" width="4.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+    <row r="1" ht="11.449999999999999" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="49" t="s">
-        <v>5</v>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="66" t="s">
-        <v>6</v>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>1</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="66" t="s">
-        <v>20</v>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="9" t="s">
+        <v>2</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="64" t="s">
-        <v>4</v>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21" t="s">
+        <v>3</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
+    <row r="5" ht="45.75" customHeight="1">
+      <c r="A5" s="3"/>
       <c r="B5" s="23"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -4441,12 +4445,12 @@
       <c r="G5" s="24"/>
       <c r="H5" s="24"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="3"/>
       <c r="B6" s="26" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -4455,136 +4459,136 @@
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
       <c r="I6" s="28"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+    <row r="7" ht="20.25" customHeight="1">
+      <c r="A7" s="3"/>
       <c r="B7" s="29" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="21"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="68" t="s">
-        <v>15</v>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="36" t="s">
+        <v>6</v>
       </c>
-      <c r="F8" s="69"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="68" t="s">
-        <v>14</v>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36" t="s">
+        <v>7</v>
       </c>
-      <c r="F9" s="69"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="68" t="s">
-        <v>16</v>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36" t="s">
+        <v>8</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="68" t="s">
-        <v>17</v>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36" t="s">
+        <v>9</v>
       </c>
-      <c r="F11" s="69"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="33" t="s">
-        <v>7</v>
+    <row r="12" ht="40.5" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="39" t="s">
+        <v>10</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="21"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="46" t="s">
-        <v>8</v>
+    <row r="13" ht="17.25" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="39" t="s">
+        <v>11</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="21"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="46" t="s">
-        <v>9</v>
+    <row r="14" s="42" customFormat="1" ht="17.449999999999999" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="39" t="s">
+        <v>12</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="21"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="46" t="s">
-        <v>19</v>
+    <row r="15" s="42" customFormat="1" ht="17.449999999999999" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="39" t="s">
+        <v>13</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+    <row r="16" s="42" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A16" s="3"/>
       <c r="B16" s="43"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
@@ -4593,199 +4597,201 @@
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="45"/>
-      <c r="J16" s="21"/>
+      <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="36" t="s">
-        <v>2</v>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="46" t="s">
+        <v>14</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="21"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="39" t="s">
-        <v>10</v>
+    <row r="18" ht="31.5" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="49" t="s">
+        <v>15</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="14" t="s">
-        <v>12</v>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52" t="s">
+        <v>16</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="21"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="41" t="s">
-        <v>11</v>
+    <row r="19" ht="31.5" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="56" t="s">
+        <v>17</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="21"/>
-    </row>
-    <row r="20" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="21"/>
-    </row>
-    <row r="21" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="J22" s="3"/>
+    <row r="20" ht="10.5" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="J23" s="21"/>
+    <row r="21" ht="32.25" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="J24" s="21"/>
+    <row r="22" ht="23.25" customHeight="1">
+      <c r="A22" s="31"/>
+      <c r="J22" s="31"/>
     </row>
-    <row r="25" spans="1:10" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="J25" s="21"/>
+    <row r="23" ht="18.949999999999999" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="J26" s="21"/>
+    <row r="24" ht="12.949999999999999" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="J27" s="21"/>
+    <row r="25" ht="16.699999999999999" customHeight="1">
+      <c r="A25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="J28" s="21"/>
+    <row r="26" ht="45.950000000000003" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="J29" s="21"/>
+    <row r="27" ht="16.699999999999999" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="J30" s="21"/>
+    <row r="28" ht="27.600000000000001" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="J31" s="21"/>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="J32" s="21"/>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
-    <row r="33" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="J33" s="21"/>
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
-    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="J34" s="21"/>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
-    <row r="35" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="J35" s="21"/>
+    <row r="33" ht="40.5" customHeight="1">
+      <c r="A33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
-    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="J36" s="21"/>
+    <row r="34" ht="17.25" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
-    <row r="37" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="J37" s="21"/>
+    <row r="35" ht="17.25" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="J38" s="21"/>
+    <row r="36" ht="17.25" customHeight="1">
+      <c r="A36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
-    <row r="39" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="J39" s="21"/>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="A37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="J40" s="21"/>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="3"/>
+      <c r="J38" s="3"/>
     </row>
-    <row r="41" spans="1:10" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="J41" s="21"/>
+    <row r="39" ht="31.5" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="J39" s="3"/>
     </row>
-    <row r="42" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="31.5" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" ht="10.5" customHeight="1">
+      <c r="A41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" ht="32.25" customHeight="1">
       <c r="A42" s="2"/>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:G4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:J21"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:C11"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
-    <mergeCell ref="D2:G4"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="A23:A41"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="J2:J21"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:C11"/>
-    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="A23:A41"/>
     <mergeCell ref="J23:J41"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="B13:I13"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/front/src/assets/SOLICITAR_AHORRO_NOMINA.xlsx
+++ b/front/src/assets/SOLICITAR_AHORRO_NOMINA.xlsx
@@ -8,6 +8,9 @@
   <sheets>
     <sheet name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0" hidden="0">'Table 1'!$A$1:$I$42</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
@@ -131,28 +134,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10.000000"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11.000000"/>
-      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="10.000000"/>
       <color theme="1" tint="0.049989318521683403"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.000000"/>
-      <color indexed="64"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -197,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -422,7 +417,7 @@
     <border>
       <left style="none"/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="none"/>
       <bottom style="none"/>
@@ -430,22 +425,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="none"/>
       <top style="none"/>
@@ -474,7 +454,7 @@
       <right style="none"/>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -483,7 +463,7 @@
       <right style="none"/>
       <top style="none"/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -493,10 +473,10 @@
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -504,10 +484,10 @@
       <left style="none"/>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -517,7 +497,7 @@
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="none"/>
       <diagonal style="none"/>
@@ -528,7 +508,7 @@
       </left>
       <right style="none"/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
@@ -604,13 +584,13 @@
     <xf fontId="2" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -619,19 +599,19 @@
     <xf fontId="0" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="4" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -646,88 +626,88 @@
     <xf fontId="0" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="3" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="7" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="7" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="2" borderId="26" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="2" borderId="25" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="8" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3800,7 +3780,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>215804</xdr:colOff>
+      <xdr:colOff>215803</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>98283</xdr:rowOff>
     </xdr:to>
@@ -4361,7 +4341,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="100" workbookViewId="0">
       <selection activeCell="R12" activeCellId="0" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -4792,6 +4772,9 @@
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="80" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" man="1" max="1048575"/>
+  </colBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>